--- a/hardware/docs/bom.xlsx
+++ b/hardware/docs/bom.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nordic\Desktop\OpenProjects\display-tft-3.5\hardware\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19634B0D-D3FD-4826-8424-93080596A543}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6D986FF-C836-42C9-B770-7882401F48E7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{C2A9A3A1-11E4-4E55-90EC-FF4817674583}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{158FD842-CBA4-484D-A581-66A5A554C622}"/>
   </bookViews>
   <sheets>
-    <sheet name="HMI-TFT-3.5&quot;" sheetId="1" r:id="rId1"/>
+    <sheet name="HMI-TFT-3.5" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'HMI-TFT-3.5"'!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'HMI-TFT-3.5'!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="100">
   <si>
     <t>Designator</t>
   </si>
@@ -56,6 +56,21 @@
     <t>HelpURL</t>
   </si>
   <si>
+    <t>BF1</t>
+  </si>
+  <si>
+    <t>MLT-7525</t>
+  </si>
+  <si>
+    <t>Jiangsu</t>
+  </si>
+  <si>
+    <t>SMD, 7.5x7.5x2.5 mm, 2.7 kHz, 3.6VDC, 80dB, -20...+70°C</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Buzzers_Jiangsu-Huaneng-Elec-MLT-7525_C95299.html</t>
+  </si>
+  <si>
     <t>C1, C7, C9, C10, C11, C12, C13, C15, C16, C17, C18</t>
   </si>
   <si>
@@ -74,7 +89,7 @@
     <t>https://www.digikey.com/en/products/detail/samsung-electro-mechanics/CL10B475KQ8NQNC/3887745</t>
   </si>
   <si>
-    <t>C2, C3, C4, C5, C6, C8, C14</t>
+    <t>C2, C3, C4, C5, C6, C8, C14, C19</t>
   </si>
   <si>
     <t>0.1μF</t>
@@ -137,7 +152,7 @@
     <t>https://lcsc.com/product-detail/New-Arrivals_YJYCOIN-CD32YP0302-4R7M_C492259.html</t>
   </si>
   <si>
-    <t>R1, R2, R4, R8, R10, R12, R15, R20</t>
+    <t>R1, R2, R4, R8, R10, R12, R15, R20, R22</t>
   </si>
   <si>
     <t>10k</t>
@@ -155,7 +170,7 @@
     <t>https://www.digikey.com/product-detail/en/yageo/RC0603JR-0710KL/311-10KGRCT-ND/729647</t>
   </si>
   <si>
-    <t>R3, R5, R6, R7, R9, R11, R14, R19</t>
+    <t>R3, R5, R6, R7, R9, R11, R14, R19, R21</t>
   </si>
   <si>
     <t>120R</t>
@@ -236,7 +251,22 @@
     <t>https://www.digikey.com/product-detail/en/wurth-electronics-inc/150060YS75000/732-4981-1-ND/4489907</t>
   </si>
   <si>
-    <t>VT1</t>
+    <t>VD3</t>
+  </si>
+  <si>
+    <t>MBR2H100SFT3G</t>
+  </si>
+  <si>
+    <t>ON Semiconductor</t>
+  </si>
+  <si>
+    <t>Schottky diode, 100V, 2A, 840mV, 15pF, SOD-123F, -55...+150°C</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/on-semiconductor/MBR2H100SFT3G/MBR2H100SFT3GOSCT-ND/3462288</t>
+  </si>
+  <si>
+    <t>VT1, VT2</t>
   </si>
   <si>
     <t>IRLML0030TRPBF</t>
@@ -266,7 +296,19 @@
     <t>https://lcsc.com/product-detail/FFC-FPC-Connectors_JUSHUO-AFC07-S40ECC-00_C11097.html</t>
   </si>
   <si>
+    <t>X2</t>
+  </si>
+  <si>
+    <t>PLS-5</t>
+  </si>
+  <si>
     <t>Connfly</t>
+  </si>
+  <si>
+    <t>Connector, 5pin, 2.54mm, 500VAC, 3A</t>
+  </si>
+  <si>
+    <t>https://www.chipdip.ru/product/pls-5</t>
   </si>
   <si>
     <t>X3</t>
@@ -307,18 +349,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD3D3D3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -363,7 +399,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -391,6 +427,52 @@
         <color indexed="64"/>
       </left>
       <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -439,37 +521,13 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -500,70 +558,76 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -879,406 +943,469 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E16F4A-3919-4359-824C-82203E557BA4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD28E054-A6F6-4CA4-8A6F-5A72E22A80FA}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" customWidth="1"/>
-    <col min="6" max="6" width="89.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="129.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="89.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="129.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="24" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="12"/>
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="10">
+      <c r="G2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="6" t="s">
+    </row>
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2">
         <v>11</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="9" t="s">
+      <c r="F3" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="10">
-        <v>7</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="10">
+      <c r="E4" s="2">
+        <v>8</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="2">
         <v>1</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="10">
+      <c r="F5" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="2">
         <v>1</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="8" t="s">
+      <c r="F6" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="10">
+      <c r="G6" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="2">
         <v>1</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="8" t="s">
+      <c r="F7" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="10">
-        <v>8</v>
-      </c>
-      <c r="F7" s="6" t="s">
+      <c r="G7" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="3" t="s">
+    </row>
+    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="B8" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="C8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="D8" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="10">
-        <v>8</v>
-      </c>
-      <c r="F8" s="6" t="s">
+      <c r="E8" s="2">
+        <v>9</v>
+      </c>
+      <c r="F8" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="9" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="10">
+      <c r="D9" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="2">
+        <v>9</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="2">
         <v>2</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="10">
+      <c r="F10" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="2">
         <v>1</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="10">
+      <c r="F11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="2">
         <v>1</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" s="10">
+      <c r="F12" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="2">
         <v>1</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" s="10">
+      <c r="F13" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="2">
         <v>1</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="F14" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="10">
+      <c r="G14" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="2">
         <v>1</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E15" s="10">
+      <c r="F15" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="2">
+        <v>2</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="2">
         <v>1</v>
       </c>
-      <c r="F15" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="E16" s="10">
+      <c r="F17" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="2">
         <v>1</v>
       </c>
-      <c r="F16" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="E17" s="15">
+      <c r="F18" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" s="2">
         <v>1</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="F19" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" s="15"/>
+      <c r="C20" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E20" s="7">
+        <v>1</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.30555555555555558" right="0.30555555555555558" top="0.30555555555555558" bottom="0.30555555555555558" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="33" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="29" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/hardware/docs/bom.xlsx
+++ b/hardware/docs/bom.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nordic\Desktop\OpenProjects\display-tft-3.5\hardware\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6D986FF-C836-42C9-B770-7882401F48E7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B90065-7FB6-40A8-920F-D0FD0CC2B446}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{158FD842-CBA4-484D-A581-66A5A554C622}"/>
   </bookViews>
   <sheets>
     <sheet name="HMI-TFT-3.5" sheetId="1" r:id="rId1"/>
+    <sheet name="Keyboard" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'HMI-TFT-3.5'!$1:$1</definedName>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="101">
   <si>
     <t>Designator</t>
   </si>
@@ -296,21 +297,9 @@
     <t>https://lcsc.com/product-detail/FFC-FPC-Connectors_JUSHUO-AFC07-S40ECC-00_C11097.html</t>
   </si>
   <si>
-    <t>X2</t>
-  </si>
-  <si>
-    <t>PLS-5</t>
-  </si>
-  <si>
     <t>Connfly</t>
   </si>
   <si>
-    <t>Connector, 5pin, 2.54mm, 500VAC, 3A</t>
-  </si>
-  <si>
-    <t>https://www.chipdip.ru/product/pls-5</t>
-  </si>
-  <si>
     <t>X3</t>
   </si>
   <si>
@@ -333,6 +322,21 @@
   </si>
   <si>
     <t>https://www.chipdip.ru/product/cwf-6r-ds1069-6-mr</t>
+  </si>
+  <si>
+    <t>SB1, SB2, SB3, SB4, SB5</t>
+  </si>
+  <si>
+    <t>FSM2JSMAATR</t>
+  </si>
+  <si>
+    <t>TE Connectivity</t>
+  </si>
+  <si>
+    <t>Tactile button, 6x6mm</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/te-connectivity-alcoswitch-switches/FSM2JSMAATR/450-1792-1-ND/3503931</t>
   </si>
 </sst>
 </file>
@@ -399,7 +403,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -554,11 +558,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -629,6 +655,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -947,10 +991,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1342,14 +1386,14 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B18" s="14"/>
       <c r="C18" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E18" s="2">
         <v>1</v>
@@ -1361,46 +1405,25 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="3" t="s">
+      <c r="B19" s="15"/>
+      <c r="C19" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D19" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="E19" s="2">
+      <c r="D19" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" s="7">
         <v>1</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G19" s="11" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="E20" s="7">
-        <v>1</v>
-      </c>
-      <c r="F20" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1408,4 +1431,93 @@
   <pageMargins left="0.30555555555555558" right="0.30555555555555558" top="0.30555555555555558" bottom="0.30555555555555558" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="29" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6118F1C-4F2A-491B-A83B-A18A8EB8A7F6}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="37" customWidth="1"/>
+    <col min="7" max="7" width="112" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="31"/>
+      <c r="C2" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" s="32">
+        <v>5</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="33"/>
+      <c r="C3" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="34">
+        <v>1</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>